--- a/season_2021.xlsx
+++ b/season_2021.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Documents\Newbees\Git\newbees_streamlit_drafts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnologyDataServic\OneDrive - TCG3PL\Documents\Newbees\streamlit_heatmap\newbees_streamlit_drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A424E076-81D9-41C2-8281-EF725C817BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7316FA3-42A6-49D1-94BE-8EC3BC93C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="combined_2021" sheetId="11" r:id="rId2"/>
+    <sheet name="combined_2021" sheetId="11" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="5" sheetId="2" r:id="rId3"/>
     <sheet name="6" sheetId="3" r:id="rId4"/>
     <sheet name="16" sheetId="4" r:id="rId5"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +164,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CA0C4A31-8D5D-49DD-BD60-8157E890E35C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,374 +462,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784D222-FEF9-4473-9786-BE27624FFC2A}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120.5</v>
+      </c>
+      <c r="C2">
+        <v>110.5</v>
+      </c>
+      <c r="D2">
+        <v>72.5</v>
+      </c>
+      <c r="E2">
+        <v>117</v>
+      </c>
+      <c r="F2">
+        <v>161</v>
+      </c>
+      <c r="G2">
+        <v>133.5</v>
+      </c>
+      <c r="H2">
+        <v>105.5</v>
+      </c>
+      <c r="I2">
+        <v>137</v>
+      </c>
+      <c r="J2">
+        <v>95.5</v>
+      </c>
+      <c r="K2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>147.5</v>
+      </c>
+      <c r="C3">
+        <v>148.5</v>
+      </c>
+      <c r="D3">
+        <v>111.5</v>
+      </c>
+      <c r="E3">
+        <v>172</v>
+      </c>
+      <c r="F3">
+        <v>141.5</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>79.5</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>112</v>
+      </c>
+      <c r="K3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>138</v>
+      </c>
+      <c r="E4">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4">
+        <v>61.5</v>
+      </c>
+      <c r="J4">
+        <v>149</v>
+      </c>
+      <c r="K4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>107.5</v>
+      </c>
+      <c r="D5">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>131.5</v>
+      </c>
+      <c r="F5">
+        <v>135.5</v>
+      </c>
+      <c r="G5">
         <v>120.5</v>
       </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>147.5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>121</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>78</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>120.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="H5">
+        <v>107.5</v>
+      </c>
+      <c r="I5">
+        <v>178</v>
+      </c>
+      <c r="J5">
+        <v>119.5</v>
+      </c>
+      <c r="K5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>134.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>181.5</v>
       </c>
       <c r="D6">
-        <v>134.5</v>
+        <v>185</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>128.5</v>
+      </c>
+      <c r="G6">
+        <v>140.5</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+      <c r="I6">
+        <v>143.5</v>
+      </c>
+      <c r="J6">
+        <v>188.5</v>
+      </c>
+      <c r="K6">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>81.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>124.5</v>
       </c>
       <c r="D7">
-        <v>81.5</v>
+        <v>72.5</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>180.5</v>
       </c>
       <c r="F7">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>161</v>
+      </c>
+      <c r="G7">
+        <v>103.5</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
+      </c>
+      <c r="I7">
+        <v>158.5</v>
+      </c>
+      <c r="J7">
+        <v>106.5</v>
+      </c>
+      <c r="K7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>134.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>126.5</v>
+      </c>
+      <c r="I8">
+        <v>108.5</v>
+      </c>
+      <c r="J8">
+        <v>112</v>
+      </c>
+      <c r="K8">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>125.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D9">
-        <v>125.5</v>
+        <v>106</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F9">
+        <v>86.5</v>
+      </c>
+      <c r="G9">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>119.5</v>
+      </c>
+      <c r="I9">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="J9">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>121.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>121.5</v>
+        <v>105.5</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>66.5</v>
       </c>
       <c r="F10">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>117.5</v>
+      </c>
+      <c r="J10">
+        <v>109.5</v>
+      </c>
+      <c r="K10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>105.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>130.5</v>
       </c>
       <c r="D11">
-        <v>105.5</v>
+        <v>77</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>116</v>
+      </c>
+      <c r="J11">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="K11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>145.5</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F12">
+        <v>77.5</v>
+      </c>
+      <c r="G12">
+        <v>89.5</v>
+      </c>
+      <c r="H12">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="I12">
+        <v>130.5</v>
+      </c>
+      <c r="J12">
+        <v>102</v>
+      </c>
+      <c r="K12">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>73.5</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F13">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <v>96.5</v>
+      </c>
+      <c r="J13">
+        <v>114</v>
+      </c>
+      <c r="K13">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>122.5</v>
       </c>
       <c r="F14">
+        <v>141.5</v>
+      </c>
+      <c r="G14">
         <v>124.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="H14">
+        <v>111</v>
+      </c>
+      <c r="I14">
+        <v>144</v>
+      </c>
+      <c r="J14">
+        <v>98</v>
+      </c>
+      <c r="K14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>118.5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>124.5</v>
       </c>
       <c r="D15">
-        <v>118.5</v>
+        <v>127</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>142.5</v>
+      </c>
+      <c r="H15">
+        <v>101.5</v>
+      </c>
+      <c r="I15">
+        <v>69.5</v>
+      </c>
+      <c r="J15">
+        <v>103.5</v>
+      </c>
+      <c r="K15">
         <v>137.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>104.5</v>
       </c>
       <c r="F16">
+        <v>96.5</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <v>140</v>
+      </c>
+      <c r="J16">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <v>160.5</v>
+      </c>
+      <c r="F17">
+        <v>133.5</v>
+      </c>
+      <c r="G17">
+        <v>128</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>73</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="J17">
+        <v>99</v>
+      </c>
+      <c r="K17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>91.5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>91.5</v>
+        <v>119.5</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="F18">
+        <v>166</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>54.5</v>
+      </c>
+      <c r="I18">
         <v>133.5</v>
       </c>
+      <c r="J18">
+        <v>123</v>
+      </c>
+      <c r="K18">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1576,647 +1851,374 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784D222-FEF9-4473-9786-BE27624FFC2A}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>120.5</v>
       </c>
-      <c r="C2">
-        <v>110.5</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>147.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>134.5</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>81.5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>72.5</v>
       </c>
-      <c r="E2">
-        <v>117</v>
-      </c>
-      <c r="F2">
-        <v>161</v>
-      </c>
-      <c r="G2">
-        <v>133.5</v>
-      </c>
-      <c r="H2">
-        <v>105.5</v>
-      </c>
-      <c r="I2">
-        <v>137</v>
-      </c>
-      <c r="J2">
-        <v>95.5</v>
-      </c>
-      <c r="K2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>147.5</v>
-      </c>
-      <c r="C3">
-        <v>148.5</v>
-      </c>
-      <c r="D3">
-        <v>111.5</v>
-      </c>
-      <c r="E3">
-        <v>172</v>
-      </c>
-      <c r="F3">
-        <v>141.5</v>
-      </c>
-      <c r="G3">
-        <v>124</v>
-      </c>
-      <c r="H3">
-        <v>79.5</v>
-      </c>
-      <c r="I3">
-        <v>91</v>
-      </c>
-      <c r="J3">
-        <v>112</v>
-      </c>
-      <c r="K3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>152</v>
-      </c>
-      <c r="D4">
-        <v>138</v>
-      </c>
-      <c r="E4">
-        <v>132</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>133</v>
-      </c>
-      <c r="H4">
-        <v>120</v>
-      </c>
-      <c r="I4">
-        <v>61.5</v>
-      </c>
-      <c r="J4">
-        <v>149</v>
-      </c>
-      <c r="K4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>107.5</v>
-      </c>
-      <c r="D5">
-        <v>113</v>
-      </c>
-      <c r="E5">
-        <v>131.5</v>
-      </c>
-      <c r="F5">
-        <v>135.5</v>
-      </c>
-      <c r="G5">
-        <v>120.5</v>
-      </c>
-      <c r="H5">
-        <v>107.5</v>
-      </c>
-      <c r="I5">
-        <v>178</v>
-      </c>
-      <c r="J5">
-        <v>119.5</v>
-      </c>
-      <c r="K5">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>134.5</v>
-      </c>
-      <c r="C6">
-        <v>181.5</v>
-      </c>
-      <c r="D6">
-        <v>185</v>
-      </c>
-      <c r="E6">
-        <v>105</v>
-      </c>
-      <c r="F6">
-        <v>128.5</v>
-      </c>
-      <c r="G6">
-        <v>140.5</v>
-      </c>
-      <c r="H6">
-        <v>104</v>
-      </c>
-      <c r="I6">
-        <v>143.5</v>
-      </c>
-      <c r="J6">
-        <v>188.5</v>
-      </c>
-      <c r="K6">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>81.5</v>
-      </c>
-      <c r="C7">
-        <v>124.5</v>
-      </c>
-      <c r="D7">
-        <v>72.5</v>
-      </c>
-      <c r="E7">
-        <v>180.5</v>
-      </c>
-      <c r="F7">
-        <v>161</v>
-      </c>
-      <c r="G7">
-        <v>103.5</v>
-      </c>
-      <c r="H7">
-        <v>102</v>
-      </c>
-      <c r="I7">
-        <v>158.5</v>
-      </c>
-      <c r="J7">
-        <v>106.5</v>
-      </c>
-      <c r="K7">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>125</v>
       </c>
-      <c r="C8">
-        <v>144</v>
-      </c>
-      <c r="D8">
-        <v>111</v>
-      </c>
       <c r="E8">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>134.5</v>
       </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="H8">
-        <v>126.5</v>
-      </c>
-      <c r="I8">
-        <v>108.5</v>
-      </c>
-      <c r="J8">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>125.5</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>121.5</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>105.5</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>131</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>118.5</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <v>112</v>
       </c>
-      <c r="K8">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>125.5</v>
-      </c>
-      <c r="C9">
-        <v>113</v>
-      </c>
-      <c r="D9">
-        <v>106</v>
-      </c>
-      <c r="E9">
-        <v>134</v>
-      </c>
-      <c r="F9">
-        <v>86.5</v>
-      </c>
-      <c r="G9">
-        <v>97</v>
-      </c>
-      <c r="H9">
-        <v>119.5</v>
-      </c>
-      <c r="I9">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>85</v>
-      </c>
-      <c r="K9">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>121.5</v>
-      </c>
-      <c r="C10">
-        <v>89</v>
-      </c>
-      <c r="D10">
-        <v>105.5</v>
-      </c>
-      <c r="E10">
-        <v>66.5</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10">
-        <v>107</v>
-      </c>
-      <c r="H10">
-        <v>87</v>
-      </c>
-      <c r="I10">
-        <v>117.5</v>
-      </c>
-      <c r="J10">
-        <v>109.5</v>
-      </c>
-      <c r="K10">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>105.5</v>
-      </c>
-      <c r="C11">
-        <v>130.5</v>
-      </c>
-      <c r="D11">
-        <v>77</v>
-      </c>
-      <c r="E11">
-        <v>134</v>
-      </c>
-      <c r="F11">
-        <v>88</v>
-      </c>
-      <c r="G11">
-        <v>98</v>
-      </c>
-      <c r="H11">
-        <v>63</v>
-      </c>
-      <c r="I11">
-        <v>116</v>
-      </c>
-      <c r="J11">
-        <v>89.5</v>
-      </c>
-      <c r="K11">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>131</v>
-      </c>
-      <c r="C12">
-        <v>145.5</v>
-      </c>
-      <c r="D12">
-        <v>171</v>
-      </c>
-      <c r="E12">
-        <v>74</v>
-      </c>
-      <c r="F12">
-        <v>77.5</v>
-      </c>
-      <c r="G12">
-        <v>89.5</v>
-      </c>
-      <c r="H12">
-        <v>122</v>
-      </c>
-      <c r="I12">
-        <v>130.5</v>
-      </c>
-      <c r="J12">
-        <v>102</v>
-      </c>
-      <c r="K12">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>73.5</v>
-      </c>
-      <c r="D13">
-        <v>135</v>
-      </c>
-      <c r="E13">
-        <v>109</v>
-      </c>
-      <c r="F13">
-        <v>120</v>
-      </c>
-      <c r="G13">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>84</v>
-      </c>
-      <c r="I13">
-        <v>96.5</v>
-      </c>
-      <c r="J13">
-        <v>114</v>
-      </c>
-      <c r="K13">
-        <v>145.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>120</v>
-      </c>
-      <c r="C14">
-        <v>139</v>
-      </c>
-      <c r="D14">
-        <v>110</v>
-      </c>
-      <c r="E14">
-        <v>122.5</v>
-      </c>
-      <c r="F14">
-        <v>141.5</v>
-      </c>
-      <c r="G14">
-        <v>124.5</v>
-      </c>
-      <c r="H14">
-        <v>111</v>
-      </c>
-      <c r="I14">
-        <v>144</v>
-      </c>
-      <c r="J14">
-        <v>98</v>
-      </c>
-      <c r="K14">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>118.5</v>
-      </c>
-      <c r="C15">
-        <v>124.5</v>
-      </c>
-      <c r="D15">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>156</v>
-      </c>
-      <c r="F15">
-        <v>85</v>
-      </c>
-      <c r="G15">
-        <v>142.5</v>
-      </c>
-      <c r="H15">
-        <v>101.5</v>
-      </c>
-      <c r="I15">
-        <v>69.5</v>
-      </c>
-      <c r="J15">
-        <v>103.5</v>
-      </c>
-      <c r="K15">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>93</v>
-      </c>
-      <c r="D16">
-        <v>105</v>
-      </c>
-      <c r="E16">
-        <v>104.5</v>
-      </c>
-      <c r="F16">
-        <v>96.5</v>
-      </c>
-      <c r="G16">
-        <v>150</v>
-      </c>
-      <c r="H16">
-        <v>68</v>
-      </c>
-      <c r="I16">
-        <v>140</v>
-      </c>
-      <c r="J16">
-        <v>66</v>
-      </c>
-      <c r="K16">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>73</v>
-      </c>
-      <c r="C17">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>112</v>
-      </c>
-      <c r="E17">
-        <v>160.5</v>
-      </c>
-      <c r="F17">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>91.5</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
         <v>133.5</v>
       </c>
-      <c r="G17">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="I17">
-        <v>105</v>
-      </c>
-      <c r="J17">
-        <v>99</v>
-      </c>
-      <c r="K17">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>91.5</v>
-      </c>
-      <c r="C18">
-        <v>125</v>
-      </c>
-      <c r="D18">
-        <v>119.5</v>
-      </c>
-      <c r="E18">
-        <v>152</v>
-      </c>
-      <c r="F18">
-        <v>166</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>54.5</v>
-      </c>
-      <c r="I18">
-        <v>133.5</v>
-      </c>
-      <c r="J18">
-        <v>123</v>
-      </c>
-      <c r="K18">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
